--- a/data/trans_dic/P56$pareja-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,36; 57,1</t>
+          <t>28,65; 56,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,62; 54,24</t>
+          <t>27,86; 54,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,81; 60,82</t>
+          <t>36,48; 60,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,15; 42,47</t>
+          <t>24,28; 42,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 18,06</t>
+          <t>4,99; 18,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 21,16</t>
+          <t>9,79; 20,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 18,61</t>
+          <t>6,17; 18,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,51</t>
+          <t>10,63; 17,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 29,64</t>
+          <t>14,93; 29,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 28,22</t>
+          <t>16,41; 27,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 28,11</t>
+          <t>16,15; 27,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 22,38</t>
+          <t>15,34; 22,27</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 89,16</t>
+          <t>32,22; 88,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 67,54</t>
+          <t>9,34; 64,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,74; 52,61</t>
+          <t>23,09; 52,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,87</t>
+          <t>0,0; 61,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,56</t>
+          <t>0,0; 33,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 55,82</t>
+          <t>15,61; 56,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 29,23</t>
+          <t>11,57; 29,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 53,06</t>
+          <t>6,9; 56,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 58,24</t>
+          <t>14,22; 57,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,52; 54,29</t>
+          <t>17,9; 51,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,32; 34,25</t>
+          <t>18,9; 34,37</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,15; 89,78</t>
+          <t>31,2; 91,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,81</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,69</t>
+          <t>0,0; 42,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,7</t>
+          <t>0,0; 80,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,1</t>
+          <t>0,0; 78,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 59,5</t>
+          <t>19,12; 61,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 54,29</t>
+          <t>28,42; 56,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 55,7</t>
+          <t>30,3; 55,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,16; 59,75</t>
+          <t>36,82; 59,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 43,08</t>
+          <t>28,2; 43,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 20,78</t>
+          <t>6,22; 19,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 20,85</t>
+          <t>10,02; 20,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,91</t>
+          <t>8,65; 20,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 18,48</t>
+          <t>11,85; 18,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 29,62</t>
+          <t>15,67; 28,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 28,74</t>
+          <t>17,63; 28,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,97</t>
+          <t>18,6; 30,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 24,0</t>
+          <t>17,91; 24,54</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18565</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27620</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27584</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21905</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8566</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27597</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16030</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28113</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27131</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55217</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43614</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12646; 24714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19055; 37389</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20681; 34479</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16487; 28665</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4166; 15494</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18201; 38678</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8800; 26709</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21324; 35403</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19045; 37729</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41733; 70339</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32201; 55553</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41183; 59794</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6018</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8163</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8120</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12118</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18123</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3324</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2941; 8104</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1045; 7244</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6257; 14204</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4190</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3975</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3961; 14342</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4868; 12435</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>753; 6207</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2970; 12093</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6545; 18749</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13077; 23774</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4227</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2021; 5926</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2771</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4373</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6185</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2475; 7989</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33980</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36143</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29704</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24193</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36915</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30956</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63342</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58173</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73058</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13721; 27095</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23790; 43266</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26543; 42937</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28621; 44258</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5814; 18067</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20257; 40750</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14854; 35333</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29524; 46290</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22230; 40330</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49483; 80918</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>45362; 73683</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62805; 86049</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>